--- a/Result comparition.xlsx
+++ b/Result comparition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akshat\git\cloned project\Voice_Biometrics_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19C361F-D989-4287-8AAF-566C06367DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E0BC8-8731-4D24-91CC-CF9040414113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Test train Split</t>
   </si>
@@ -80,6 +80,18 @@
   <si>
     <t>Length of each utterance</t>
   </si>
+  <si>
+    <t>Test train split</t>
+  </si>
+  <si>
+    <t>no. of mfccs</t>
+  </si>
+  <si>
+    <t>ith MFCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,12 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,6 +446,930 @@
         <a:xfrm>
           <a:off x="2699657" y="9465128"/>
           <a:ext cx="3163340" cy="1521802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>8894</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8893E7B-A3DE-E1DC-99D3-C3A23D44C73F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28215772" y="348343"/>
+          <a:ext cx="3394351" cy="1621971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E119B1E5-F3CF-68B4-0D45-9A4770DFF2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28199443" y="2220686"/>
+          <a:ext cx="3390900" cy="1697505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>21484</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C36D9C3-56EE-241E-78AB-27A3D8AC5AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28188271" y="4096466"/>
+          <a:ext cx="3423270" cy="1679205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>35888</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5162A6-A0EF-5640-D5D5-1820473792CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28177254" y="5933312"/>
+          <a:ext cx="3439168" cy="1656053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>89042</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>41868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707E96C5-A75A-9166-E908-54ED74C0D52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28177253" y="7787473"/>
+          <a:ext cx="3492323" cy="1710611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>35887</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6C6C35-837F-F939-A2D2-7E1042CFE4AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28177253" y="9641633"/>
+          <a:ext cx="3439168" cy="1616703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>45572</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>179436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65366FC1-6AA9-DEF0-59E2-852900207732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28177253" y="11495793"/>
+          <a:ext cx="3448853" cy="1662764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>78778</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091036DB-9D95-4D4A-292B-D0A80201A963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28188271" y="13406618"/>
+          <a:ext cx="3480564" cy="1677798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>651377</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>2088</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD02941F-29AD-FBD4-4B90-6CC25E16A0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37069595" y="722284"/>
+          <a:ext cx="3132561" cy="1454860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>45967</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A4A25E-A1FD-CD91-052C-E71E8B65A089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37072584" y="2385072"/>
+          <a:ext cx="3177139" cy="1553355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>41279</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478C37A5-A3D6-0D33-5F9B-55FFDC568A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37072585" y="4219744"/>
+          <a:ext cx="3172450" cy="1498314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>59541</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A0DD51-DC2C-B9EC-7A16-278A946E5D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37072585" y="5870947"/>
+          <a:ext cx="3190712" cy="1498315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>73866</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC57DC24-7FAA-68D7-10E5-2EF7DF8B975E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37040076" y="7634324"/>
+          <a:ext cx="3203508" cy="1496785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>89916</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>78778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9805B6B9-D975-66BC-6A34-8942220A255C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37040075" y="9310151"/>
+          <a:ext cx="3219559" cy="1568402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>77856</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E4A8F7-A231-E3E6-6C17-5AC582317454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37040075" y="10985978"/>
+          <a:ext cx="3207499" cy="1539755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>88971</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>71615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E816D0A9-A726-E21F-4FEC-CD92CE5906E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37040075" y="12848008"/>
+          <a:ext cx="3218614" cy="1561239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>96782</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>35809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AA742D-0AB4-5FFF-8F50-5CDF080C4459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37040075" y="14710039"/>
+          <a:ext cx="3226425" cy="1525432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>72619</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CDD5A5-907F-E01A-1040-822D4A98E639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37094106" y="16369910"/>
+          <a:ext cx="3200538" cy="1488173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>85531</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>16159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05A77-D053-9E7C-D7F1-5AD7F262E98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37073633" y="18288000"/>
+          <a:ext cx="3219061" cy="1509058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>60321</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>73387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EEF34D-A7C3-C920-D201-9E19847152D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37072585" y="19814446"/>
+          <a:ext cx="3191492" cy="1541124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>69799</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>48924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529E07B9-2F4C-87F7-002B-2873197527B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37072584" y="21465651"/>
+          <a:ext cx="3200971" cy="1516660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -701,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:P53"/>
+  <dimension ref="C3:AG118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -720,9 +1663,18 @@
     <col min="12" max="12" width="23.84375" customWidth="1"/>
     <col min="13" max="13" width="22.15234375" customWidth="1"/>
     <col min="14" max="14" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.23046875" style="5"/>
+    <col min="22" max="22" width="27" customWidth="1"/>
+    <col min="23" max="23" width="21.3828125" customWidth="1"/>
+    <col min="25" max="25" width="17.3046875" customWidth="1"/>
+    <col min="26" max="26" width="48.07421875" customWidth="1"/>
+    <col min="29" max="29" width="9.23046875" style="5"/>
+    <col min="31" max="31" width="21.765625" customWidth="1"/>
+    <col min="34" max="34" width="44.23046875" customWidth="1"/>
+    <col min="35" max="35" width="15.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:33" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,13 +1711,38 @@
       <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:33" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="V4">
+        <v>0.3</v>
+      </c>
+      <c r="W4">
+        <v>13</v>
+      </c>
+      <c r="Y4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.4">
       <c r="C5">
         <v>0.2</v>
       </c>
@@ -785,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <f>G5/H5</f>
+        <f t="shared" ref="I5:I12" si="0">G5/H5</f>
         <v>1500.2</v>
       </c>
       <c r="J5">
@@ -795,18 +1772,24 @@
         <v>32</v>
       </c>
       <c r="L5">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f>L5*I5</f>
-        <v>502.56700000000006</v>
+        <v>1500.2</v>
       </c>
       <c r="N5">
-        <f>M5/60</f>
-        <v>8.3761166666666682</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.4">
+        <f t="shared" ref="N5:N12" si="1">M5/60</f>
+        <v>25.003333333333334</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -817,14 +1800,14 @@
         <v>0.2</v>
       </c>
       <c r="G6">
-        <f>E6*(1-F6)</f>
+        <f t="shared" ref="G6:G12" si="2">E6*(1-F6)</f>
         <v>6000.8</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <f>G6/H6</f>
+        <f t="shared" si="0"/>
         <v>1200.1600000000001</v>
       </c>
       <c r="J6">
@@ -834,22 +1817,22 @@
         <v>32</v>
       </c>
       <c r="L6">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M12" si="0">L6*I6</f>
-        <v>402.05360000000007</v>
+        <f t="shared" ref="M6:M12" si="3">L6*I6</f>
+        <v>1200.1600000000001</v>
       </c>
       <c r="N6">
-        <f>M6/60</f>
-        <v>6.7008933333333349</v>
+        <f t="shared" si="1"/>
+        <v>20.002666666666666</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4">
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:33" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -860,14 +1843,14 @@
         <v>0.4</v>
       </c>
       <c r="G7">
-        <f>E7*(1-F7)</f>
+        <f t="shared" si="2"/>
         <v>4500.5999999999995</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
-        <f>G7/H7</f>
+        <f t="shared" si="0"/>
         <v>900.11999999999989</v>
       </c>
       <c r="J7">
@@ -877,22 +1860,22 @@
         <v>32</v>
       </c>
       <c r="L7">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>301.54019999999997</v>
+        <f t="shared" si="3"/>
+        <v>900.11999999999989</v>
       </c>
       <c r="N7">
-        <f>M7/60</f>
-        <v>5.0256699999999999</v>
+        <f t="shared" si="1"/>
+        <v>15.001999999999999</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:33" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -903,14 +1886,14 @@
         <v>0.6</v>
       </c>
       <c r="G8">
-        <f>E8*(1-F8)</f>
+        <f t="shared" si="2"/>
         <v>3000.4</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8">
-        <f>G8/H8</f>
+        <f t="shared" si="0"/>
         <v>600.08000000000004</v>
       </c>
       <c r="J8">
@@ -920,22 +1903,22 @@
         <v>32</v>
       </c>
       <c r="L8">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>201.02680000000004</v>
+        <f t="shared" si="3"/>
+        <v>600.08000000000004</v>
       </c>
       <c r="N8">
-        <f>M8/60</f>
-        <v>3.3504466666666675</v>
+        <f t="shared" si="1"/>
+        <v>10.001333333333333</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:33" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -946,14 +1929,14 @@
         <v>0.8</v>
       </c>
       <c r="G9">
-        <f>E9*(1-F9)</f>
+        <f t="shared" si="2"/>
         <v>1500.1999999999996</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9">
-        <f>G9/H9</f>
+        <f t="shared" si="0"/>
         <v>300.03999999999991</v>
       </c>
       <c r="J9">
@@ -963,22 +1946,22 @@
         <v>32</v>
       </c>
       <c r="L9">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>100.51339999999998</v>
+        <f t="shared" si="3"/>
+        <v>300.03999999999991</v>
       </c>
       <c r="N9">
-        <f>M9/60</f>
-        <v>1.6752233333333328</v>
+        <f t="shared" si="1"/>
+        <v>5.0006666666666648</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4">
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:33" x14ac:dyDescent="0.4">
       <c r="E10">
         <v>7501</v>
       </c>
@@ -986,14 +1969,14 @@
         <v>0.9</v>
       </c>
       <c r="G10">
-        <f>E10*(1-F10)</f>
+        <f t="shared" si="2"/>
         <v>750.0999999999998</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10">
-        <f>G10/H10</f>
+        <f t="shared" si="0"/>
         <v>150.01999999999995</v>
       </c>
       <c r="J10">
@@ -1003,22 +1986,22 @@
         <v>32</v>
       </c>
       <c r="L10">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>50.256699999999988</v>
+        <f t="shared" si="3"/>
+        <v>150.01999999999995</v>
       </c>
       <c r="N10">
-        <f>M10/60</f>
-        <v>0.83761166666666642</v>
+        <f t="shared" si="1"/>
+        <v>2.5003333333333324</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.4">
       <c r="E11">
         <v>7501</v>
       </c>
@@ -1026,14 +2009,14 @@
         <v>0.95</v>
       </c>
       <c r="G11">
-        <f>E11*(1-F11)</f>
+        <f t="shared" si="2"/>
         <v>375.05000000000035</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11">
-        <f>G11/H11</f>
+        <f t="shared" si="0"/>
         <v>75.010000000000076</v>
       </c>
       <c r="J11">
@@ -1043,22 +2026,22 @@
         <v>32</v>
       </c>
       <c r="L11">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
-        <v>25.128350000000026</v>
+        <f t="shared" si="3"/>
+        <v>75.010000000000076</v>
       </c>
       <c r="N11">
-        <f>M11/60</f>
-        <v>0.41880583333333377</v>
+        <f t="shared" si="1"/>
+        <v>1.250166666666668</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
         <v>0.92</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.4">
       <c r="E12">
         <v>7501</v>
       </c>
@@ -1066,14 +2049,14 @@
         <v>0.98</v>
       </c>
       <c r="G12">
-        <f>E12*(1-F12)</f>
+        <f t="shared" si="2"/>
         <v>150.02000000000012</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <f>G12/H12</f>
+        <f t="shared" si="0"/>
         <v>30.004000000000026</v>
       </c>
       <c r="J12">
@@ -1083,49 +2066,215 @@
         <v>32</v>
       </c>
       <c r="L12">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
-        <v>10.051340000000009</v>
+        <f t="shared" si="3"/>
+        <v>30.004000000000026</v>
       </c>
       <c r="N12">
-        <f>M12/60</f>
-        <v>0.16752233333333347</v>
+        <f t="shared" si="1"/>
+        <v>0.5000666666666671</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3">
         <v>0.84</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:33" x14ac:dyDescent="0.4">
       <c r="E13">
         <v>7501</v>
       </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="V13">
+        <v>0.3</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.4">
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.4">
       <c r="C15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.4">
       <c r="C23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="V23">
+        <v>0.3</v>
+      </c>
+      <c r="W23">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.4">
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.4">
       <c r="C33">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="V33">
+        <v>0.3</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>0.96</v>
+      </c>
+      <c r="AE33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.4">
+      <c r="AE42">
+        <v>4</v>
+      </c>
+      <c r="AG42">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.4">
       <c r="C43">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="V43">
+        <v>0.3</v>
+      </c>
+      <c r="W43">
+        <v>20</v>
+      </c>
+      <c r="Y43">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.4">
+      <c r="AE51">
+        <v>5</v>
+      </c>
+      <c r="AG51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.4">
       <c r="C53">
         <v>0.95</v>
+      </c>
+      <c r="V53">
+        <v>0.3</v>
+      </c>
+      <c r="W53">
+        <v>29</v>
+      </c>
+      <c r="Y53">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.4">
+      <c r="AE60">
+        <v>6</v>
+      </c>
+      <c r="AG60">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.4">
+      <c r="V63">
+        <v>0.3</v>
+      </c>
+      <c r="W63">
+        <v>39</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="22:33" x14ac:dyDescent="0.4">
+      <c r="AE70">
+        <v>13</v>
+      </c>
+      <c r="AG70">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="73" spans="22:33" x14ac:dyDescent="0.4">
+      <c r="V73">
+        <v>0.3</v>
+      </c>
+      <c r="W73">
+        <v>49</v>
+      </c>
+      <c r="Y73">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="80" spans="22:33" x14ac:dyDescent="0.4">
+      <c r="AE80">
+        <v>14</v>
+      </c>
+      <c r="AG80">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="89" spans="31:33" x14ac:dyDescent="0.4">
+      <c r="AE89">
+        <v>15</v>
+      </c>
+      <c r="AG89">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="99" spans="31:33" x14ac:dyDescent="0.4">
+      <c r="AE99">
+        <v>26</v>
+      </c>
+      <c r="AG99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="31:33" x14ac:dyDescent="0.4">
+      <c r="AE109">
+        <v>27</v>
+      </c>
+      <c r="AG109">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="118" spans="31:33" x14ac:dyDescent="0.4">
+      <c r="AE118">
+        <v>28</v>
+      </c>
+      <c r="AG118">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/Result comparition.xlsx
+++ b/Result comparition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akshat\git\cloned project\Voice_Biometrics_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E0BC8-8731-4D24-91CC-CF9040414113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BA25D8-1983-4A56-B3B8-B0EB5FAF3C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Test train Split</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MFCC with more speaker size</t>
+  </si>
+  <si>
+    <t>Number of Speaker</t>
+  </si>
+  <si>
+    <t>Time per speaker</t>
+  </si>
+  <si>
+    <t>Fitting Report</t>
   </si>
 </sst>
 </file>
@@ -120,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,13 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +394,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3103143</xdr:colOff>
+      <xdr:colOff>3103144</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>525</xdr:rowOff>
     </xdr:to>
@@ -1370,6 +1389,94 @@
         <a:xfrm>
           <a:off x="37072584" y="21465651"/>
           <a:ext cx="3200971" cy="1516660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3106303</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>165121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1F67A5-6AE9-F95F-00E8-BE78B1995FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3106710" y="14126966"/>
+          <a:ext cx="3106302" cy="3834463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98162</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>631890</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>118323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F39359-D1D5-05C5-E769-EA3B77FE429E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7434187" y="14104812"/>
+          <a:ext cx="2862324" cy="2072306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1644,16 +1751,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:AG118"/>
+  <dimension ref="B3:AG118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.61328125" customWidth="1"/>
     <col min="4" max="4" width="44.3046875" customWidth="1"/>
+    <col min="5" max="5" width="15.53515625" customWidth="1"/>
     <col min="6" max="6" width="16.07421875" customWidth="1"/>
     <col min="7" max="7" width="16.84375" customWidth="1"/>
     <col min="8" max="8" width="15.15234375" customWidth="1"/>
@@ -2218,15 +2327,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="22:33" x14ac:dyDescent="0.4">
-      <c r="AE70">
+    <row r="70" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AE70" s="6">
         <v>13</v>
       </c>
-      <c r="AG70">
+      <c r="AG70" s="6">
         <v>0.22</v>
       </c>
     </row>
-    <row r="73" spans="22:33" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
       <c r="V73">
         <v>0.3</v>
       </c>
@@ -2237,7 +2349,35 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="80" spans="22:33" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <v>60</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.4">
       <c r="AE80">
         <v>14</v>
       </c>
